--- a/biology/Neurosciences/Myotome/Myotome.xlsx
+++ b/biology/Neurosciences/Myotome/Myotome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En anatomie, le myotome regroupe les muscles ne possédant qu'une seule innervation spinale[1] et leur racine nerveuse. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En anatomie, le myotome regroupe les muscles ne possédant qu'une seule innervation spinale et leur racine nerveuse. 
 Dans le développement embryonnaire des vertébrés le myotome fait référence à des parties du somite, liées au développement des muscles. 
 Le terme myotome peut aussi désigner un instrument chirurgical servant à inciser ou disséquer les muscles.
 </t>
@@ -513,11 +525,48 @@
           <t>Description anatomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaque muscle dans le corps est relié à un ou plusieurs niveaux (segments) de la moelle épinière via les nerfs spinaux correspondant. Un groupe de muscles innervés par une seule fibre neuronale motrices issu d'une seule racine nerveuse est défini sous le terme de myotome[2].
-Liste des myotomes
-Distributions des innervation des myotomes des membres supérieurs et inférieurs[3],[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque muscle dans le corps est relié à un ou plusieurs niveaux (segments) de la moelle épinière via les nerfs spinaux correspondant. Un groupe de muscles innervés par une seule fibre neuronale motrices issu d'une seule racine nerveuse est défini sous le terme de myotome.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Myotome</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myotome</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description anatomique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des myotomes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Distributions des innervation des myotomes des membres supérieurs et inférieurs, :
 C1/C2: muscles pour la flexion/extension du cou
 C3: muscles pour la flexion latérale du cou
 C4: muscles pour l'élévation de l'épaule
@@ -532,38 +581,74 @@
 L5: muscles pour l'extension du gros orteil
 S1: muscles pour la flexion-plantaire de la cheville /éversion de la cheville /extension de la hanche
 S2: muscles pour la flexion du genou
-S3–S4: muscles pour la contraction des sphincters anal et vésical
-Signe clinique
-Chez les humains, des examens neurologiques portant sur les myotomes peuvent être réalisés. En effet comme chaque racine nerveuse provient d'une partie spécifique de la moelle épinière et innerve un groupe spécifique de muscle, le clinicien peut déterminer, par exemple, la position d'une lésion de la moelle épinière au niveau de la colonne vertébrale[5] (au cours d'examens des myotomes, le clinicien est à la recherche d'une faiblesse musculaire d'un groupe de muscles, les résultats peuvent indiquer une lésion de la moelle épinière et des racines nerveuses, ou de hernie au niveau d'un disque intervertébral appuyant sur les racines des nerfs spinaux.
+S3–S4: muscles pour la contraction des sphincters anal et vésical</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Myotome</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myotome</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description anatomique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Signe clinique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les humains, des examens neurologiques portant sur les myotomes peuvent être réalisés. En effet comme chaque racine nerveuse provient d'une partie spécifique de la moelle épinière et innerve un groupe spécifique de muscle, le clinicien peut déterminer, par exemple, la position d'une lésion de la moelle épinière au niveau de la colonne vertébrale (au cours d'examens des myotomes, le clinicien est à la recherche d'une faiblesse musculaire d'un groupe de muscles, les résultats peuvent indiquer une lésion de la moelle épinière et des racines nerveuses, ou de hernie au niveau d'un disque intervertébral appuyant sur les racines des nerfs spinaux.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Myotome</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Myotome</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description embryologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le myotome est la partie des somites (provenant du mésoderme para-axial) qui forme les muscles de l'animal. Chaque myotome se divise en une partie épaxiale (provenant de l'épimère), à l'arrière, et une partie hypaxiale (provenant de l'hypomère) à l'avant. La masse musculaire épaxiale permettent la formation des muscles érecteurs du rachis et des petits muscles intervertébraux, et sont innervés par la ramification dorsale des nerfs spinaux des mammifères. Les myoblastes de la division hypaxiale forment tous les autres muscles.
 Chez les poissons, les salamandres, les céciliens et les reptiles, la musculature du corps reste segmentée comme chez l'embryon, bien qu'elle se plie souvent et se chevauche avec des masses épaxiales et hypaxiales, divisées en plusieurs groupes musculaires distincts.
